--- a/Inventory/assets/files/ip_export.xlsx
+++ b/Inventory/assets/files/ip_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Free Wifi\Documents\Important\Wifi-Inventory\Inventory\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2D07E5-BD62-4A64-9993-443E80D8661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450EF25-C9EF-418B-8B15-E9396B563658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1DA5F532-4404-45CC-8572-7A2C29C8382C}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>User:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -141,22 +138,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -494,10 +491,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87101143-02CB-4335-BC89-C7FA34165B01}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +503,7 @@
     <col min="3" max="5" width="21" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="3" customWidth="1"/>
     <col min="7" max="9" width="17.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="64.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="64.28515625" style="2" customWidth="1"/>
     <col min="11" max="13" width="12.140625" style="4" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -515,36 +512,34 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -552,73 +547,64 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory/assets/files/ip_export.xlsx
+++ b/Inventory/assets/files/ip_export.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Free Wifi\Documents\Important\Wifi-Inventory\Inventory\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450EF25-C9EF-418B-8B15-E9396B563658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71543CB5-D2F2-4D57-AC70-FA4D86AEAAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1DA5F532-4404-45CC-8572-7A2C29C8382C}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Time:</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>Date:</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -155,6 +155,12 @@
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,10 +497,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87101143-02CB-4335-BC89-C7FA34165B01}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,8 +515,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="8"/>
@@ -520,7 +526,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="8"/>
@@ -530,7 +536,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -548,7 +554,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -558,7 +564,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -568,35 +574,38 @@
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Inventory/assets/files/ip_export.xlsx
+++ b/Inventory/assets/files/ip_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Free Wifi\Documents\Important\Wifi-Inventory\Inventory\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMPORTANT\Wifi-Inventory\Inventory\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71543CB5-D2F2-4D57-AC70-FA4D86AEAAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C544F8A6-EF44-49D5-9305-201466621ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1DA5F532-4404-45CC-8572-7A2C29C8382C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{1DA5F532-4404-45CC-8572-7A2C29C8382C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Time:</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Date:</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>Up State:</t>
+  </si>
+  <si>
+    <t>Down State</t>
   </si>
 </sst>
 </file>
@@ -124,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -147,6 +156,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -155,12 +167,6 @@
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,123 +503,164 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87101143-02CB-4335-BC89-C7FA34165B01}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.85546875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="21" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="3" customWidth="1"/>
-    <col min="7" max="9" width="17.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="64.28515625" style="2" customWidth="1"/>
-    <col min="11" max="13" width="12.140625" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="6" width="21" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="3" customWidth="1"/>
+    <col min="8" max="10" width="17.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="64.28515625" style="2" customWidth="1"/>
+    <col min="12" max="14" width="12.140625" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="11" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="12"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
